--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_37_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_37_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9985547552403113</v>
+        <v>0.9992499916436414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998411829272512</v>
+        <v>0.9987969995054015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9993276187823932</v>
+        <v>0.9991931859254904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9973831694132056</v>
+        <v>0.9992409041197863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9988651607074933</v>
+        <v>0.9992241600733386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00134907254425636</v>
+        <v>0.0007000998790988064</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001482487661472115</v>
+        <v>0.001122948156088963</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008640691313193582</v>
+        <v>0.0007572210313385262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001700620949455463</v>
+        <v>0.001174947618729411</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00128234504038741</v>
+        <v>0.000966075009680799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004161324431251763</v>
+        <v>0.003061739302305583</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03672972289925912</v>
+        <v>0.0264594005808674</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001051087097955</v>
+        <v>1.000545460622806</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03829338324408868</v>
+        <v>0.02758583204210495</v>
       </c>
       <c r="P2" t="n">
-        <v>127.2166758537638</v>
+        <v>128.5285750973449</v>
       </c>
       <c r="Q2" t="n">
-        <v>196.6925978712512</v>
+        <v>198.0044971148323</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9985229119492258</v>
+        <v>0.9992352494290262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998387317619744</v>
+        <v>0.9987869117594176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993109180057231</v>
+        <v>0.999175018947816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9973118856219574</v>
+        <v>0.9992284241599737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9988351655829725</v>
+        <v>0.9992095496684745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00137879685872569</v>
+        <v>0.0007138610893336309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001505368213393838</v>
+        <v>0.001132364624164118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008855311014215756</v>
+        <v>0.0007742713258308472</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001746946725898618</v>
+        <v>0.001194264413149972</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001316238913660097</v>
+        <v>0.0009842678694904098</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004205537369883995</v>
+        <v>0.003090394116405709</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03713215397368821</v>
+        <v>0.0267181790048205</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001074245855109</v>
+        <v>1.000556182233435</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0387129466425034</v>
+        <v>0.02785562719931092</v>
       </c>
       <c r="P3" t="n">
-        <v>127.173088003182</v>
+        <v>128.4896443346131</v>
       </c>
       <c r="Q3" t="n">
-        <v>196.6490100206694</v>
+        <v>197.9655663521005</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984903301935236</v>
+        <v>0.9992202177388438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983621304927949</v>
+        <v>0.998776568518172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992937327989935</v>
+        <v>0.9991564329357029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9972387578992223</v>
+        <v>0.9992157182130801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.998804371240631</v>
+        <v>0.9991946483722899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001409210497499979</v>
+        <v>0.0007278925123039908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001528879290813804</v>
+        <v>0.00114201958585102</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009076156068504304</v>
+        <v>0.0007917148976590904</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001794470833074934</v>
+        <v>0.001213930996035705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001351035886618559</v>
+        <v>0.001002822946847398</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004250286170895258</v>
+        <v>0.00311930675477583</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03753945254662059</v>
+        <v>0.02697948317340402</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001097941677437</v>
+        <v>1.00056711437175</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03913758475890978</v>
+        <v>0.02812805562732524</v>
       </c>
       <c r="P4" t="n">
-        <v>127.1294513245259</v>
+        <v>128.4507143372054</v>
       </c>
       <c r="Q4" t="n">
-        <v>196.6053733420133</v>
+        <v>197.9266363546928</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9984570723871802</v>
+        <v>0.9992048700730842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9983363276368996</v>
+        <v>0.9987659496469969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992761403526309</v>
+        <v>0.9991373516435512</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9971639819607644</v>
+        <v>0.9992027749948424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9987728583845191</v>
+        <v>0.9991794149982546</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001440255199872615</v>
+        <v>0.0007422188846058731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001552965124177529</v>
+        <v>0.001151931835978338</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009302234511033459</v>
+        <v>0.0008096233057779662</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001843066079591315</v>
+        <v>0.001233964833451219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00138664476534733</v>
+        <v>0.001021791527172901</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004295430981803721</v>
+        <v>0.003148541400606274</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03795069432662089</v>
+        <v>0.02724369440083105</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00112212917296</v>
+        <v>1.000578276310484</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03956633395287253</v>
+        <v>0.02840351487369648</v>
       </c>
       <c r="P5" t="n">
-        <v>127.0858699179249</v>
+        <v>128.4117327311368</v>
       </c>
       <c r="Q5" t="n">
-        <v>196.5617919354123</v>
+        <v>197.8876547486242</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9984230551150076</v>
+        <v>0.99918920185663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9983098055111891</v>
+        <v>0.9987550676110796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9992580087525023</v>
+        <v>0.999117862518496</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9970871992378501</v>
+        <v>0.9991895650010612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987404826088052</v>
+        <v>0.9991638608705784</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001472008830260024</v>
+        <v>0.0007568444769107355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001577722364341567</v>
+        <v>0.001162089738841107</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009535241554692462</v>
+        <v>0.0008279144782308069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001892965491423036</v>
+        <v>0.001254411592735889</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001423228725463577</v>
+        <v>0.001041159509573596</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004341102880477975</v>
+        <v>0.003178073620584248</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0383667672636101</v>
+        <v>0.02751080654780473</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001146869007267</v>
+        <v>1.000589671376996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04000011997617909</v>
+        <v>0.02868199853776519</v>
       </c>
       <c r="P6" t="n">
-        <v>127.042254519751</v>
+        <v>128.3727055445023</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.5181765372384</v>
+        <v>197.8486275619897</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9983883035610791</v>
+        <v>0.9991732232678745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982826137835045</v>
+        <v>0.9987439128166989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9992394382333808</v>
+        <v>0.9990979179770048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9970086939002557</v>
+        <v>0.9991761098205159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987073333981531</v>
+        <v>0.9991479879070295</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001504447880435377</v>
+        <v>0.0007717597881349536</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001603104648556212</v>
+        <v>0.001172502249756469</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000977388909429152</v>
+        <v>0.0008466330736974861</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001943984392849364</v>
+        <v>0.001275237858235904</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001460686651139258</v>
+        <v>0.001060924506046729</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004387224286587926</v>
+        <v>0.003207890800574638</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03878721284695997</v>
+        <v>0.02778056493548959</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00117214286467</v>
+        <v>1.000601292168819</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0404384647984545</v>
+        <v>0.02896324109849064</v>
       </c>
       <c r="P7" t="n">
-        <v>126.9986586098866</v>
+        <v>128.3336744232479</v>
       </c>
       <c r="Q7" t="n">
-        <v>196.474580627374</v>
+        <v>197.8095964407353</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9983527261270775</v>
+        <v>0.9991569048078396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9982546507846608</v>
+        <v>0.9987324766117153</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9992201691992599</v>
+        <v>0.9990775120123501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.996928003412464</v>
+        <v>0.9991623909112032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986731728687741</v>
+        <v>0.9991317623675241</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001537657853407021</v>
+        <v>0.0007869923542799718</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001629206880543014</v>
+        <v>0.00118317744511733</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001002151316733447</v>
+        <v>0.0008657847296854377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001996423375583948</v>
+        <v>0.001296472329728476</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001499287346158697</v>
+        <v>0.001081128529706957</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004433932702023101</v>
+        <v>0.003238037790719692</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03921298067486099</v>
+        <v>0.02805338400763751</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001198017362126</v>
+        <v>1.000613160139753</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04088235844425018</v>
+        <v>0.02924767464335323</v>
       </c>
       <c r="P8" t="n">
-        <v>126.9549897893422</v>
+        <v>128.2945840492263</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.4309118068296</v>
+        <v>197.7705060667137</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9983165034842636</v>
+        <v>0.999140243442737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9982260872427766</v>
+        <v>0.998720743530079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992006163784158</v>
+        <v>0.9990566244883623</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9968459850421429</v>
+        <v>0.999148405928571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986384596279467</v>
+        <v>0.9991151987799819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001571470100483535</v>
+        <v>0.0008025450072538402</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001655869693097244</v>
+        <v>0.001194129761802091</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001027278414991351</v>
+        <v>0.0008853883446394719</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00204972532012408</v>
+        <v>0.001318118636170031</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001538512593737543</v>
+        <v>0.001101753490404752</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004480974809472718</v>
+        <v>0.003268503336596495</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03964177216628357</v>
+        <v>0.02832922532039731</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001224361102354</v>
+        <v>1.000625277496191</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04132940447718337</v>
+        <v>0.02953525909186746</v>
       </c>
       <c r="P9" t="n">
-        <v>126.9114874560157</v>
+        <v>128.2554452414547</v>
       </c>
       <c r="Q9" t="n">
-        <v>196.3874094735031</v>
+        <v>197.7313672589421</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9982794055999715</v>
+        <v>0.9991232440990435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9981967177040599</v>
+        <v>0.9987087259444157</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9991804364458005</v>
+        <v>0.9990352559262599</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9967616640848277</v>
+        <v>0.999134143366388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986027466387761</v>
+        <v>0.9990982813877664</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001606099347061178</v>
+        <v>0.0008184131484067586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00168328486831558</v>
+        <v>0.001205347650507691</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00105321140715192</v>
+        <v>0.0009054434293790725</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002104523665577627</v>
+        <v>0.001340194587193804</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001578867536364773</v>
+        <v>0.001122819008286438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004528609846680865</v>
+        <v>0.003299270284724493</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04007616931620558</v>
+        <v>0.0286079210780294</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001251341381839</v>
+        <v>1.000637640655241</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04178229481310363</v>
+        <v>0.02982581950488169</v>
       </c>
       <c r="P10" t="n">
-        <v>126.8678936108647</v>
+        <v>128.2162865549305</v>
       </c>
       <c r="Q10" t="n">
-        <v>196.3438156283521</v>
+        <v>197.6922085724179</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9982416053027523</v>
+        <v>0.9991058920443824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9981666736265324</v>
+        <v>0.9986963992135188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999159774754757</v>
+        <v>0.9990133673099807</v>
       </c>
       <c r="E11" t="n">
-        <v>0.996675790916714</v>
+        <v>0.9991196115038583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9985663038565575</v>
+        <v>0.9990810077639334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001641384265274066</v>
+        <v>0.0008346105297657436</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001711329695904842</v>
+        <v>0.001216854112718943</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00107976350135668</v>
+        <v>0.0009259866017370447</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002160330758871007</v>
+        <v>0.001362687368040099</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001620047130113843</v>
+        <v>0.001144328105379971</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004576620246377649</v>
+        <v>0.00333036143067428</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04051400085493984</v>
+        <v>0.02888962668096879</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001278832507089</v>
+        <v>1.000650260331358</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04223876574687804</v>
+        <v>0.0301195178985492</v>
       </c>
       <c r="P11" t="n">
-        <v>126.8244306579528</v>
+        <v>128.1770907466893</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.3003526754402</v>
+        <v>197.6530127641767</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9982029631039601</v>
+        <v>0.9990881852616341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9981358643587417</v>
+        <v>0.9986837812428977</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991386125229225</v>
+        <v>0.9989910292052597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9965877971139314</v>
+        <v>0.9991048046645227</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9985289666363134</v>
+        <v>0.9990633767544999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001677455061650158</v>
+        <v>0.0008511390342232944</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001740088795016951</v>
+        <v>0.001228632434428923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001106958834598207</v>
+        <v>0.0009469516334951278</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002217516006242203</v>
+        <v>0.001385605764874727</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001662237420420205</v>
+        <v>0.001166282218624044</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004625169035498314</v>
+        <v>0.003361761093786892</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04095674622879798</v>
+        <v>0.02917428721020094</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001306935924393</v>
+        <v>1.000663137991539</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04270035970791059</v>
+        <v>0.0304162970158393</v>
       </c>
       <c r="P12" t="n">
-        <v>126.7809549567189</v>
+        <v>128.1378701305397</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.2568769742063</v>
+        <v>197.6137921480272</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9981634834910106</v>
+        <v>0.9990701185163211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9981042796961461</v>
+        <v>0.9986708586857832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991168827245593</v>
+        <v>0.9989681771917956</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9964977279488803</v>
+        <v>0.999089709527002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9984907098835877</v>
+        <v>0.9990453850928454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001714307547383786</v>
+        <v>0.000868003547934491</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001769571691143509</v>
+        <v>0.001240695074260566</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001134883540856658</v>
+        <v>0.0009683989851838986</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002276049986148606</v>
+        <v>0.001408970396862083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001705466763502632</v>
+        <v>0.00118868541561064</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004674232544568707</v>
+        <v>0.003393469012903969</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04140419721940985</v>
+        <v>0.02946189993762267</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001335648370174</v>
+        <v>1.000676277442676</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04316685961354404</v>
+        <v>0.0307161540125078</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7374920847134</v>
+        <v>128.0986295116603</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.2134141022008</v>
+        <v>197.5745515291477</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9981231660552063</v>
+        <v>0.9990516696294099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9980719221320122</v>
+        <v>0.9986575951844906</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9990946141021895</v>
+        <v>0.9989447533567724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9964055653891963</v>
+        <v>0.9990743231421214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9984515447569177</v>
+        <v>0.9990269952564584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001751942103976142</v>
+        <v>0.0008852247740535683</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001799776056929602</v>
+        <v>0.001253075970516854</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00116350068345811</v>
+        <v>0.0009903830098491235</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002335944417429297</v>
+        <v>0.001432785828808828</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001749722550443703</v>
+        <v>0.001211584419328976</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004723774704393267</v>
+        <v>0.0034255288047281</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04185620747244239</v>
+        <v>0.02975272717001869</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001364970141668</v>
+        <v>1.000689694814975</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0436381128788384</v>
+        <v>0.03101936236228228</v>
       </c>
       <c r="P14" t="n">
-        <v>126.6940606653794</v>
+        <v>128.0593379264457</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.1699826828668</v>
+        <v>197.5352599439332</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9980819658538516</v>
+        <v>0.9990328330340392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9980387367905758</v>
+        <v>0.9986439916949952</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9990717963781867</v>
+        <v>0.9989207749146333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9963112793215668</v>
+        <v>0.9990586164954828</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9984114567526591</v>
+        <v>0.9990082054922675</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001790400683460964</v>
+        <v>0.0009028079090011577</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001830753116492367</v>
+        <v>0.001265774230836591</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001192823470058103</v>
+        <v>0.001012887551180315</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002397218870067386</v>
+        <v>0.001457096969927292</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001795021170062744</v>
+        <v>0.001234981412702061</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004773883586415217</v>
+        <v>0.003457942190073151</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04231312660937459</v>
+        <v>0.03004676203854847</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001394933924472</v>
+        <v>1.000703394157062</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04411448400938281</v>
+        <v>0.03132591490390146</v>
       </c>
       <c r="P15" t="n">
-        <v>126.6506316773404</v>
+        <v>128.0200015050703</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1265536948279</v>
+        <v>197.4959235225577</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9980398138539505</v>
+        <v>0.9990136158645314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9980046523307525</v>
+        <v>0.9986300723270489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990482164393909</v>
+        <v>0.9988962998056145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.996214821196823</v>
+        <v>0.9990426326139621</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9983703123074105</v>
+        <v>0.9989890319607907</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001829747725109684</v>
+        <v>0.0009207462932004054</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001862569463602518</v>
+        <v>0.0012787673498248</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00122312576985225</v>
+        <v>0.001035858230397396</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002459904895105627</v>
+        <v>0.001481837222140855</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00184151354625413</v>
+        <v>0.001258856272670703</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004824583314469958</v>
+        <v>0.003490655113172758</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04277555055296991</v>
+        <v>0.03034380156144588</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0014255899244</v>
+        <v>1.000717370280341</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0445965942976065</v>
+        <v>0.03163560001424519</v>
       </c>
       <c r="P16" t="n">
-        <v>126.607154353526</v>
+        <v>127.9806520569905</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.0830763710134</v>
+        <v>197.4565740744779</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9979967871676205</v>
+        <v>0.9989939909016156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.997969766588229</v>
+        <v>0.9986157901293153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9990240847598545</v>
+        <v>0.9988711813441119</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9961161886177072</v>
+        <v>0.999026286549298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9983282256721185</v>
+        <v>0.9989694170996987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001869911248145423</v>
+        <v>0.0009390653346460709</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001895133772941063</v>
+        <v>0.001292099154493059</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00125413710513086</v>
+        <v>0.001059432716670616</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002524004050469187</v>
+        <v>0.001507138070496478</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001889070577800024</v>
+        <v>0.001283280675782927</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004875788433576724</v>
+        <v>0.003523732561564254</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04324247042139733</v>
+        <v>0.03064417293134326</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001456882059912</v>
+        <v>1.000731642980643</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04508339191149026</v>
+        <v>0.03194875881521355</v>
       </c>
       <c r="P17" t="n">
-        <v>126.5637286202535</v>
+        <v>127.9412510044274</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.0396506377409</v>
+        <v>197.4171730219148</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.997952838208915</v>
+        <v>0.9989739617761526</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9979340019017098</v>
+        <v>0.9986011456094633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989993460280743</v>
+        <v>0.9988454883298927</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9960152401059931</v>
+        <v>0.9990096589361808</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9982851354029929</v>
+        <v>0.998949395650665</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001910935671960708</v>
+        <v>0.0009577616440887732</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001928518537918521</v>
+        <v>0.001305769170954852</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001285928556051168</v>
+        <v>0.001083546439199664</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002589608279762388</v>
+        <v>0.001532874706600594</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001937761694918561</v>
+        <v>0.001308211361745837</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004927515400074712</v>
+        <v>0.003557156655990162</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04371425021615615</v>
+        <v>0.03094772437658015</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001488844938971</v>
+        <v>1.000746209617344</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04557525634883077</v>
+        <v>0.0322652330739123</v>
       </c>
       <c r="P18" t="n">
-        <v>126.5203245525365</v>
+        <v>127.9018232334071</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.9962465700239</v>
+        <v>197.3777452508945</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9979080450195729</v>
+        <v>0.998953521471164</v>
       </c>
       <c r="C19" t="n">
-        <v>0.997897458081504</v>
+        <v>0.9985861495730005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9989741291252477</v>
+        <v>0.9988192269431123</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9959122620423745</v>
+        <v>0.9989926848926911</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9982411777086513</v>
+        <v>0.9989289492359381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001952748148017902</v>
+        <v>0.0009768417715698868</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00196263058999234</v>
+        <v>0.00131976731274295</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001318334498914097</v>
+        <v>0.001108193597709304</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002656531470437327</v>
+        <v>0.001559147556313331</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001987432984675712</v>
+        <v>0.001333671214514849</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004979654833373439</v>
+        <v>0.003590924610992893</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04418991002500347</v>
+        <v>0.03125446802570613</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001521421803947</v>
+        <v>1.000761075293699</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04607116598049226</v>
+        <v>0.03258503543522846</v>
       </c>
       <c r="P19" t="n">
-        <v>126.4770351837425</v>
+        <v>127.8623717447894</v>
       </c>
       <c r="Q19" t="n">
-        <v>195.9529572012299</v>
+        <v>197.3382937622768</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.997862223089204</v>
+        <v>0.9989326529754763</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9978599585550636</v>
+        <v>0.9985707938251892</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989481965926269</v>
+        <v>0.9987923709888311</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9958066763857559</v>
+        <v>0.9989753911709431</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9981960691884643</v>
+        <v>0.9989080765473112</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001995520908666898</v>
+        <v>0.0009963215962733136</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00199763475188544</v>
+        <v>0.001334101229285364</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001351660089141623</v>
+        <v>0.001133398776995236</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002725149278756176</v>
+        <v>0.001585915212042192</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002038404683948899</v>
+        <v>0.001359661863068081</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005032395579528687</v>
+        <v>0.003625037747045584</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04467125371720496</v>
+        <v>0.03156456234883218</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001554746844215</v>
+        <v>1.000776252381472</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04657300147018957</v>
+        <v>0.03290833111567372</v>
       </c>
       <c r="P20" t="n">
-        <v>126.4337003112433</v>
+        <v>127.8228809293442</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.9096223287307</v>
+        <v>197.2988029468317</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9978154788440411</v>
+        <v>0.9989113453125769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9978216110907615</v>
+        <v>0.9985550275195285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9989216988324563</v>
+        <v>0.9987648413186451</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9956990589123892</v>
+        <v>0.9989577100091992</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9981500494828761</v>
+        <v>0.9988867197373568</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002039154609691221</v>
+        <v>0.001016211364291615</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002033430426552308</v>
+        <v>0.001348818383558753</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001385712046592258</v>
+        <v>0.001159236260387336</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002795087520329208</v>
+        <v>0.001613282557102123</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002090406003968912</v>
+        <v>0.001386255338957146</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005085642936408818</v>
+        <v>0.003659538382653772</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04515699956475431</v>
+        <v>0.03187807027239282</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001588742658879</v>
+        <v>1.00079174886358</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04707942652410162</v>
+        <v>0.03323518572059122</v>
       </c>
       <c r="P21" t="n">
-        <v>126.3904399280609</v>
+        <v>127.7833478314844</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.8663619455483</v>
+        <v>197.2592698489718</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.997767772294141</v>
+        <v>0.9988896022077836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9977823546371307</v>
+        <v>0.9985389037769185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988945495540791</v>
+        <v>0.9987367080752605</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9955891700565496</v>
+        <v>0.9989397303292326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.998103017149077</v>
+        <v>0.9988649394837417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002083686579947488</v>
+        <v>0.001036507598204187</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002070074602857475</v>
+        <v>0.00136386918953479</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001420601262365966</v>
+        <v>0.001185640216693527</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00286650188367992</v>
+        <v>0.001641111956145128</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002143551573022943</v>
+        <v>0.001413376086419328</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005139437302401959</v>
+        <v>0.003694366809110583</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04564741591752471</v>
+        <v>0.03219483806768078</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001623438331534</v>
+        <v>1.000807562030703</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04759072091631125</v>
+        <v>0.03356543897672432</v>
       </c>
       <c r="P22" t="n">
-        <v>126.3472331198011</v>
+        <v>127.7437965909587</v>
       </c>
       <c r="Q22" t="n">
-        <v>195.8231551372885</v>
+        <v>197.2197186084461</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9977190585657512</v>
+        <v>0.9988674170276568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9977421736985729</v>
+        <v>0.9985224033311743</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988668224836927</v>
+        <v>0.9987079782611653</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9954770425852522</v>
+        <v>0.9989213940719989</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9980550070178692</v>
+        <v>0.9988427207035987</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002129158707113806</v>
+        <v>0.001057216490035603</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002107581745261882</v>
+        <v>0.00137927163135107</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001456232991800721</v>
+        <v>0.001212604073852963</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002939371074242024</v>
+        <v>0.001669493274414249</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002197802033021373</v>
+        <v>0.001441042886623945</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00519378395772504</v>
+        <v>0.003729540160888842</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0461428077506539</v>
+        <v>0.0325148656776497</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001658866497636</v>
+        <v>1.000823696707159</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04810720260537923</v>
+        <v>0.0338990908245981</v>
       </c>
       <c r="P23" t="n">
-        <v>126.3040567009385</v>
+        <v>127.7042315550332</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.779978718426</v>
+        <v>197.1801535725206</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9976693720443262</v>
+        <v>0.9988447627216712</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9977010865908468</v>
+        <v>0.9985054562274757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988384787050355</v>
+        <v>0.9986785267455531</v>
       </c>
       <c r="E24" t="n">
-        <v>0.995362585867364</v>
+        <v>0.9989026736028179</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9980059764030764</v>
+        <v>0.9988199859299481</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002175538893877857</v>
+        <v>0.001078363290264049</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002145934756808591</v>
+        <v>0.001395091008761833</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001492657245722954</v>
+        <v>0.00124024527116344</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003013753991206061</v>
+        <v>0.001698469285559928</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002253205618464508</v>
+        <v>0.001469352201367501</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00524861034459968</v>
+        <v>0.003765116696544535</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04664267245643047</v>
+        <v>0.03283844226305579</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001695002149581</v>
+        <v>1.000840172566057</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04862834758654329</v>
+        <v>0.03423644273514079</v>
       </c>
       <c r="P24" t="n">
-        <v>126.2609577556612</v>
+        <v>127.6646217186258</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.7368797731486</v>
+        <v>197.1405437361132</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9976186650950127</v>
+        <v>0.9988216258620179</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9976590243203927</v>
+        <v>0.9984880809888599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988094571413021</v>
+        <v>0.9986483884497129</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9952456508478627</v>
+        <v>0.9988835697388235</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9979558459524442</v>
+        <v>0.9987967577010775</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002222871605284112</v>
+        <v>0.001099960533159641</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002185198039957229</v>
+        <v>0.001411310031324913</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001529952513211203</v>
+        <v>0.001268531033868742</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003089747502170263</v>
+        <v>0.001728038724801818</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002309851995766522</v>
+        <v>0.001498275965999919</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005303971753712837</v>
+        <v>0.003801085949636421</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04714733932348793</v>
+        <v>0.0331656529132119</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0017318799309</v>
+        <v>1.000856999373078</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04915449916693583</v>
+        <v>0.03457758342009347</v>
       </c>
       <c r="P25" t="n">
-        <v>126.2179108061503</v>
+        <v>127.6249619575345</v>
       </c>
       <c r="Q25" t="n">
-        <v>195.6938328236377</v>
+        <v>197.1008839750219</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9975669277947068</v>
+        <v>0.998798022365329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9976160329332306</v>
+        <v>0.9984703322877087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9987798663240094</v>
+        <v>0.9986175983953148</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9951263622311989</v>
+        <v>0.9988641206771283</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9979047185190478</v>
+        <v>0.9987730543100062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00227116610411471</v>
+        <v>0.001121993361245025</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002225328612769177</v>
+        <v>0.001427877664771577</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001567979321699483</v>
+        <v>0.00129742849300205</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003167270564440171</v>
+        <v>0.001758142469692212</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002367624943069827</v>
+        <v>0.001527791402073416</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005359850548337786</v>
+        <v>0.003837397384610669</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0476567529749427</v>
+        <v>0.03349616935180835</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001769507058395</v>
+        <v>1.000874165552488</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04968559961216466</v>
+        <v>0.03492217062774432</v>
       </c>
       <c r="P26" t="n">
-        <v>126.174923754271</v>
+        <v>127.5852967775861</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.6508457717584</v>
+        <v>197.0612187950735</v>
       </c>
     </row>
   </sheetData>
